--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1509838.245174373</v>
+        <v>-1512539.113891772</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>323.8388427438209</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>337.750287877368</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.018230507614021</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.2770776263195</v>
+        <v>1.781160222249659</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.129466351361</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>2.264474711071196</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>71.639505303742</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>167.288063275282</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1111,16 +1111,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>71.39346770308133</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>293.8990719699915</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,7 +1345,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>16.90511909474527</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>103.3387326418233</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.24118421664471</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182141</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>108.6115798077503</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.63412424768211</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>26.07046444232026</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>96.03245356584297</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>200.5547759112638</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2959,16 +2959,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652567</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.010065354184</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206849</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1579.968004989121</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.005488048709</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D2" t="n">
-        <v>852.7397894419585</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E2" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1967.596360717499</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>1967.596360717499</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1966.567845053242</v>
+        <v>736.6224273402293</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>673.036065727045</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>673.036065727045</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>445.0465148290276</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.2539356854975</v>
+        <v>53.04593830764924</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1973.026070603629</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320764</v>
+        <v>1620.257415333515</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.695380320764</v>
+        <v>1620.257415333515</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.556048344953</v>
+        <v>1230.118083357703</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>304.7087196946015</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>599.4122767260732</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.0385070447395</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C7" t="n">
-        <v>350.1023241168326</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1467.468278382293</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1244.489797577028</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>955.3714600808661</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>700.6869718749792</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W7" t="n">
-        <v>700.6869718749792</v>
+        <v>825.137147448514</v>
       </c>
       <c r="X7" t="n">
-        <v>700.6869718749792</v>
+        <v>597.1475965504967</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.6869718749792</v>
+        <v>376.3550174069666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1254.111199477248</v>
+        <v>1195.040196257711</v>
       </c>
       <c r="C8" t="n">
-        <v>1254.111199477248</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D8" t="n">
-        <v>1181.996585635751</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1644.250531453059</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>1254.111199477248</v>
+        <v>1581.640036321833</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>127.7128549540954</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>312.4344762351454</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>607.1380332666172</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>970.4000522258373</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1357.685180822783</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1097.179607071196</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>842.4951188653092</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W10" t="n">
-        <v>553.0779488283486</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X10" t="n">
-        <v>325.0883979303312</v>
+        <v>155.629344792067</v>
       </c>
       <c r="Y10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="11">
@@ -5021,46 +5021,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263216</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>680.4481746984147</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156772</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314358</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.5772922261132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>815.6411092982063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>665.5244698858705</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>517.6113763034774</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>370.721428805567</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>203.525329520447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,7 +5838,7 @@
         <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1337.934786622704</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.914901483327</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2063.313436506268</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1774.238209850466</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1519.553721644579</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1230.136551607618</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1002.147000709601</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>781.3544215660705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1070.17693676985</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6470,10 +6470,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,22 +6540,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,13 +6923,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,49 +6938,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>740.5562989961528</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973197</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7339,10 +7339,10 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382519</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7582,37 +7582,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1025.119922845744</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1652.717886400351</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2204.627616639638</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45.76488231024518</v>
+        <v>265.030432851515</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.454437538929568</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>14.25823202432733</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,13 +8538,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>58.89499891965971</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>402.7664347977588</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>385.2197081484396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>178.0508199596876</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,7 +22717,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.5907959652926</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>31.68313303847354</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.74112246243957</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>260.4525338942707</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>84.99383243580162</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>85.96822242532721</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.629008122312371e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.629008122312371e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1277965.278126896</v>
+        <v>1277965.278126895</v>
       </c>
     </row>
     <row r="9">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116044.8438455268</v>
+        <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
@@ -26326,19 +26326,19 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
+        <v>141250.654945751</v>
+      </c>
+      <c r="H2" t="n">
         <v>141250.6549457511</v>
       </c>
-      <c r="H2" t="n">
-        <v>141250.6549457512</v>
-      </c>
       <c r="I2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262496</v>
@@ -26350,10 +26350,10 @@
         <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42973.5459647123</v>
+        <v>42973.54596471228</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26427,34 +26427,34 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719708</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719681</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719703</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481312</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481303</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.2277248132</v>
+        <v>15498.2277248131</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481308</v>
       </c>
       <c r="P4" t="n">
         <v>15498.22772481314</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1134618.25813495</v>
+        <v>-1135013.079076103</v>
       </c>
       <c r="C6" t="n">
-        <v>-82369.32626033944</v>
+        <v>-82369.32626033941</v>
       </c>
       <c r="D6" t="n">
-        <v>-82369.32626033951</v>
+        <v>-82369.32626033948</v>
       </c>
       <c r="E6" t="n">
-        <v>-474864.6849644216</v>
+        <v>-474899.4228898571</v>
       </c>
       <c r="F6" t="n">
-        <v>32620.75666012424</v>
+        <v>32586.01873468865</v>
       </c>
       <c r="G6" t="n">
-        <v>32620.75666012433</v>
+        <v>32586.01873468858</v>
       </c>
       <c r="H6" t="n">
-        <v>32620.75666012436</v>
+        <v>32586.01873468861</v>
       </c>
       <c r="I6" t="n">
-        <v>32620.75666012436</v>
+        <v>32586.01873468864</v>
       </c>
       <c r="J6" t="n">
-        <v>-134984.4211498582</v>
+        <v>-135019.159075294</v>
       </c>
       <c r="K6" t="n">
-        <v>5592.248153889319</v>
+        <v>5592.248153889406</v>
       </c>
       <c r="L6" t="n">
         <v>25019.9661475211</v>
       </c>
       <c r="M6" t="n">
-        <v>-107587.3275814056</v>
+        <v>-107587.3275814057</v>
       </c>
       <c r="N6" t="n">
-        <v>25019.96614752107</v>
+        <v>25019.96614752126</v>
       </c>
       <c r="O6" t="n">
-        <v>25019.9661475211</v>
+        <v>25019.96614752118</v>
       </c>
       <c r="P6" t="n">
-        <v>5592.248153889319</v>
+        <v>5592.248153889333</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.109610943952646</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>11.49068084004506</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.554902555617844</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.6043753121196</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>325.4877837590637</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>108.1924748781953</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>27.3743970864555</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>283.2895739176016</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>92.33886668606209</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>269.3220350264554</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>115.2459207102715</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -29986,10 +29986,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-3.316095221735781e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30229,10 +30229,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>741.1502463817015</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.3926848685848</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,10 +32558,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32789,25 +32789,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>344.9857809048118</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,25 +33260,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833006</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>490.507583235568</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>705.9257335045844</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>381.1895643063683</v>
+        <v>600.455114847638</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>193.0419337824144</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>365.7939385020181</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>77.23845291524478</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35258,13 +35258,13 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>560.258679069875</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>609.8085342983683</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.5512458942258</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>171.2123056344834</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36206,10 +36206,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36437,25 +36437,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>205.0040068187903</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388562</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>351.9532034556938</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>574.5840214212511</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
